--- a/HT36C/Tables/Table 6.xlsx
+++ b/HT36C/Tables/Table 6.xlsx
@@ -105,7 +105,7 @@
       <patternFill patternType="lightGray"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border/>
     <border>
       <left style="thin">
@@ -121,22 +121,11 @@
         <color rgb="FF000000"/>
       </bottom>
     </border>
-    <border>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -148,14 +137,13 @@
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="right" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf borderId="2" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" vertical="bottom"/>
+      <alignment horizontal="right" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -429,40 +417,40 @@
       <c r="A2" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="3">
+      <c r="B2" s="4">
         <v>43.6</v>
       </c>
-      <c r="C2" s="3">
+      <c r="C2" s="4">
         <v>40.5</v>
       </c>
-      <c r="D2" s="3">
+      <c r="D2" s="4">
         <v>37.4</v>
       </c>
-      <c r="E2" s="3">
+      <c r="E2" s="4">
         <v>34.0</v>
       </c>
-      <c r="F2" s="3">
+      <c r="F2" s="4">
         <v>30.9</v>
       </c>
-      <c r="G2" s="3">
+      <c r="G2" s="4">
         <v>13.0</v>
       </c>
-      <c r="H2" s="3">
+      <c r="H2" s="4">
         <v>16.3</v>
       </c>
-      <c r="I2" s="3">
+      <c r="I2" s="4">
         <v>19.8</v>
       </c>
-      <c r="J2" s="3">
+      <c r="J2" s="4">
         <v>23.1</v>
       </c>
-      <c r="K2" s="3">
+      <c r="K2" s="4">
         <v>26.8</v>
       </c>
-      <c r="L2" s="3">
+      <c r="L2" s="4">
         <v>1.01</v>
       </c>
-      <c r="M2" s="3">
+      <c r="M2" s="4">
         <v>1.01</v>
       </c>
       <c r="N2" s="2"/>
@@ -481,40 +469,40 @@
       <c r="A3" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="3">
+      <c r="B3" s="4">
         <v>44.5</v>
       </c>
-      <c r="C3" s="3">
+      <c r="C3" s="4">
         <v>40.2</v>
       </c>
-      <c r="D3" s="3">
+      <c r="D3" s="4">
         <v>35.4</v>
       </c>
-      <c r="E3" s="3">
+      <c r="E3" s="4">
         <v>31.5</v>
       </c>
-      <c r="F3" s="3">
+      <c r="F3" s="4">
         <v>29.1</v>
       </c>
-      <c r="G3" s="3">
+      <c r="G3" s="4">
         <v>13.6</v>
       </c>
-      <c r="H3" s="3">
+      <c r="H3" s="4">
         <v>15.1</v>
       </c>
-      <c r="I3" s="3">
+      <c r="I3" s="4">
         <v>17.4</v>
       </c>
-      <c r="J3" s="3">
+      <c r="J3" s="4">
         <v>20.0</v>
       </c>
-      <c r="K3" s="3">
+      <c r="K3" s="4">
         <v>22.8</v>
       </c>
-      <c r="L3" s="3">
+      <c r="L3" s="4">
         <v>0.48</v>
       </c>
-      <c r="M3" s="3">
+      <c r="M3" s="4">
         <v>0.97</v>
       </c>
       <c r="N3" s="2"/>
@@ -530,21 +518,45 @@
       <c r="X3" s="2"/>
     </row>
     <row r="4" ht="15.75" customHeight="1">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="5"/>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="5"/>
-      <c r="H4" s="5"/>
-      <c r="I4" s="5"/>
-      <c r="J4" s="5"/>
-      <c r="K4" s="5"/>
-      <c r="L4" s="5"/>
-      <c r="M4" s="5"/>
+      <c r="B4" s="6">
+        <v>52.0</v>
+      </c>
+      <c r="C4" s="6">
+        <v>49.8</v>
+      </c>
+      <c r="D4" s="6">
+        <v>47.1</v>
+      </c>
+      <c r="E4" s="6">
+        <v>43.9</v>
+      </c>
+      <c r="F4" s="6">
+        <v>40.3</v>
+      </c>
+      <c r="G4" s="6">
+        <v>13.3</v>
+      </c>
+      <c r="H4" s="6">
+        <v>20.5</v>
+      </c>
+      <c r="I4" s="6">
+        <v>26.9</v>
+      </c>
+      <c r="J4" s="6">
+        <v>31.8</v>
+      </c>
+      <c r="K4" s="6">
+        <v>36.7</v>
+      </c>
+      <c r="L4" s="6">
+        <v>2.0</v>
+      </c>
+      <c r="M4" s="6">
+        <v>0.98</v>
+      </c>
       <c r="N4" s="2"/>
       <c r="O4" s="2"/>
       <c r="P4" s="2"/>
@@ -558,43 +570,43 @@
       <c r="X4" s="2"/>
     </row>
     <row r="5" ht="15.75" customHeight="1">
-      <c r="A5" s="4" t="s">
+      <c r="A5" s="5" t="s">
         <v>16</v>
       </c>
       <c r="B5" s="6">
         <v>46.8</v>
       </c>
-      <c r="C5" s="7">
+      <c r="C5" s="6">
         <v>45.3</v>
       </c>
-      <c r="D5" s="7">
+      <c r="D5" s="6">
         <v>43.5</v>
       </c>
-      <c r="E5" s="7">
+      <c r="E5" s="6">
         <v>41.2</v>
       </c>
-      <c r="F5" s="7">
+      <c r="F5" s="6">
         <v>38.7</v>
       </c>
-      <c r="G5" s="7">
+      <c r="G5" s="6">
         <v>12.8</v>
       </c>
-      <c r="H5" s="7">
+      <c r="H5" s="6">
         <v>19.5</v>
       </c>
-      <c r="I5" s="7">
+      <c r="I5" s="6">
         <v>25.6</v>
       </c>
-      <c r="J5" s="7">
+      <c r="J5" s="6">
         <v>29.8</v>
       </c>
-      <c r="K5" s="7">
+      <c r="K5" s="6">
         <v>34.2</v>
       </c>
-      <c r="L5" s="7">
+      <c r="L5" s="6">
         <v>3.0</v>
       </c>
-      <c r="M5" s="7">
+      <c r="M5" s="6">
         <v>1.12</v>
       </c>
       <c r="N5" s="2"/>

--- a/HT36C/Tables/Table 6.xlsx
+++ b/HT36C/Tables/Table 6.xlsx
@@ -73,6 +73,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.0"/>
+  </numFmts>
   <fonts count="4">
     <font>
       <sz val="10.0"/>
@@ -125,7 +128,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -136,7 +139,13 @@
     <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
+    <xf borderId="1" fillId="0" fontId="2" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="right" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
     <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="right" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="2" numFmtId="2" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="right" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
@@ -423,34 +432,34 @@
       <c r="C2" s="4">
         <v>40.5</v>
       </c>
-      <c r="D2" s="4">
+      <c r="D2" s="5">
         <v>37.4</v>
       </c>
-      <c r="E2" s="4">
+      <c r="E2" s="5">
         <v>34.0</v>
       </c>
-      <c r="F2" s="4">
+      <c r="F2" s="5">
         <v>30.9</v>
       </c>
-      <c r="G2" s="4">
+      <c r="G2" s="5">
         <v>13.0</v>
       </c>
-      <c r="H2" s="4">
+      <c r="H2" s="5">
         <v>16.3</v>
       </c>
-      <c r="I2" s="4">
+      <c r="I2" s="5">
         <v>19.8</v>
       </c>
-      <c r="J2" s="4">
+      <c r="J2" s="5">
         <v>23.1</v>
       </c>
-      <c r="K2" s="4">
+      <c r="K2" s="5">
         <v>26.8</v>
       </c>
-      <c r="L2" s="4">
+      <c r="L2" s="5">
         <v>1.01</v>
       </c>
-      <c r="M2" s="4">
+      <c r="M2" s="6">
         <v>1.01</v>
       </c>
       <c r="N2" s="2"/>
@@ -469,40 +478,40 @@
       <c r="A3" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="4">
+      <c r="B3" s="5">
         <v>44.5</v>
       </c>
-      <c r="C3" s="4">
+      <c r="C3" s="5">
         <v>40.2</v>
       </c>
-      <c r="D3" s="4">
+      <c r="D3" s="5">
         <v>35.4</v>
       </c>
-      <c r="E3" s="4">
+      <c r="E3" s="5">
         <v>31.5</v>
       </c>
-      <c r="F3" s="4">
+      <c r="F3" s="5">
         <v>29.1</v>
       </c>
-      <c r="G3" s="4">
+      <c r="G3" s="5">
         <v>13.6</v>
       </c>
-      <c r="H3" s="4">
+      <c r="H3" s="5">
         <v>15.1</v>
       </c>
-      <c r="I3" s="4">
+      <c r="I3" s="5">
         <v>17.4</v>
       </c>
-      <c r="J3" s="4">
+      <c r="J3" s="5">
         <v>20.0</v>
       </c>
-      <c r="K3" s="4">
+      <c r="K3" s="5">
         <v>22.8</v>
       </c>
-      <c r="L3" s="4">
+      <c r="L3" s="5">
         <v>0.48</v>
       </c>
-      <c r="M3" s="4">
+      <c r="M3" s="6">
         <v>0.97</v>
       </c>
       <c r="N3" s="2"/>
@@ -518,43 +527,43 @@
       <c r="X3" s="2"/>
     </row>
     <row r="4" ht="15.75" customHeight="1">
-      <c r="A4" s="5" t="s">
+      <c r="A4" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="6">
+      <c r="B4" s="8">
         <v>52.0</v>
       </c>
-      <c r="C4" s="6">
+      <c r="C4" s="8">
         <v>49.8</v>
       </c>
-      <c r="D4" s="6">
+      <c r="D4" s="8">
         <v>47.1</v>
       </c>
-      <c r="E4" s="6">
+      <c r="E4" s="8">
         <v>43.9</v>
       </c>
-      <c r="F4" s="6">
+      <c r="F4" s="8">
         <v>40.3</v>
       </c>
-      <c r="G4" s="6">
+      <c r="G4" s="8">
         <v>13.3</v>
       </c>
-      <c r="H4" s="6">
+      <c r="H4" s="8">
         <v>20.5</v>
       </c>
-      <c r="I4" s="6">
+      <c r="I4" s="8">
         <v>26.9</v>
       </c>
-      <c r="J4" s="6">
+      <c r="J4" s="8">
         <v>31.8</v>
       </c>
-      <c r="K4" s="6">
+      <c r="K4" s="8">
         <v>36.7</v>
       </c>
-      <c r="L4" s="6">
+      <c r="L4" s="8">
         <v>2.0</v>
       </c>
-      <c r="M4" s="6">
+      <c r="M4" s="8">
         <v>0.98</v>
       </c>
       <c r="N4" s="2"/>
@@ -570,43 +579,43 @@
       <c r="X4" s="2"/>
     </row>
     <row r="5" ht="15.75" customHeight="1">
-      <c r="A5" s="5" t="s">
+      <c r="A5" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="B5" s="6">
+      <c r="B5" s="8">
         <v>46.8</v>
       </c>
-      <c r="C5" s="6">
+      <c r="C5" s="8">
         <v>45.3</v>
       </c>
-      <c r="D5" s="6">
+      <c r="D5" s="8">
         <v>43.5</v>
       </c>
-      <c r="E5" s="6">
+      <c r="E5" s="8">
         <v>41.2</v>
       </c>
-      <c r="F5" s="6">
+      <c r="F5" s="8">
         <v>38.7</v>
       </c>
-      <c r="G5" s="6">
+      <c r="G5" s="8">
         <v>12.8</v>
       </c>
-      <c r="H5" s="6">
+      <c r="H5" s="8">
         <v>19.5</v>
       </c>
-      <c r="I5" s="6">
+      <c r="I5" s="8">
         <v>25.6</v>
       </c>
-      <c r="J5" s="6">
+      <c r="J5" s="8">
         <v>29.8</v>
       </c>
-      <c r="K5" s="6">
+      <c r="K5" s="8">
         <v>34.2</v>
       </c>
-      <c r="L5" s="6">
+      <c r="L5" s="8">
         <v>3.0</v>
       </c>
-      <c r="M5" s="6">
+      <c r="M5" s="8">
         <v>1.12</v>
       </c>
       <c r="N5" s="2"/>
